--- a/asmc document/asmc time boxing.xlsx
+++ b/asmc document/asmc time boxing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>ASMC Analysis</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -561,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -626,7 +629,7 @@
         <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -644,7 +647,7 @@
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7">
